--- a/students.xlsx
+++ b/students.xlsx
@@ -1,36 +1,491 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="32340" windowHeight="18380"/>
+  </bookViews>
   <sheets>
     <sheet name="worksheet-0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>__v</t>
+  </si>
+  <si>
+    <t>admno</t>
+  </si>
+  <si>
+    <t>8430683792</t>
+  </si>
+  <si>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>8430683792_chirag</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>8430683791</t>
+  </si>
+  <si>
+    <t>Shreyansh</t>
+  </si>
+  <si>
+    <t>8430683791_shreyansh</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>8430683793</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>8430683793_amit</t>
+  </si>
+  <si>
+    <t>8430683794</t>
+  </si>
+  <si>
+    <t>Vikrant</t>
+  </si>
+  <si>
+    <t>8430683794_vikrant</t>
+  </si>
+  <si>
+    <t>8430683794.5</t>
+  </si>
+  <si>
+    <t>Vidit</t>
+  </si>
+  <si>
+    <t>8430683794.5_vidit</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8430683795.3</t>
+  </si>
+  <si>
+    <t>Raunak</t>
+  </si>
+  <si>
+    <t>8430683795.3_raunak</t>
+  </si>
+  <si>
+    <t>8430683796.1</t>
+  </si>
+  <si>
+    <t>Saurav</t>
+  </si>
+  <si>
+    <t>8430683796.1_saurav</t>
+  </si>
+  <si>
+    <t>8430683796.9</t>
+  </si>
+  <si>
+    <t>Yagya</t>
+  </si>
+  <si>
+    <t>8430683796.9_yagya</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -38,18 +493,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,227 +1118,259 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>password</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>contact</v>
-      </c>
-      <c r="D1" t="str">
-        <v>username</v>
-      </c>
-      <c r="E1" t="str">
-        <v>class</v>
-      </c>
-      <c r="F1" t="str">
-        <v>section</v>
-      </c>
-      <c r="G1" t="str">
-        <v>__v</v>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>8430683792</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Chirag</v>
-      </c>
-      <c r="C2" t="str">
-        <v>8430683792</v>
-      </c>
-      <c r="D2" t="str">
-        <v>8430683792_chirag</v>
-      </c>
-      <c r="E2" t="str">
-        <v>A</v>
-      </c>
-      <c r="F2" t="str">
-        <v>12</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>8430683791</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Shreyansh</v>
-      </c>
-      <c r="C3" t="str">
-        <v>8430683791</v>
-      </c>
-      <c r="D3" t="str">
-        <v>8430683791_shreyansh</v>
-      </c>
-      <c r="E3" t="str">
-        <v>B</v>
-      </c>
-      <c r="F3" t="str">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>8430683793</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Amit</v>
-      </c>
-      <c r="C4" t="str">
-        <v>8430683793</v>
-      </c>
-      <c r="D4" t="str">
-        <v>8430683793_amit</v>
-      </c>
-      <c r="E4" t="str">
-        <v>A</v>
-      </c>
-      <c r="F4" t="str">
-        <v>12</v>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>8430683794</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Vikrant</v>
-      </c>
-      <c r="C5" t="str">
-        <v>8430683794</v>
-      </c>
-      <c r="D5" t="str">
-        <v>8430683794_vikrant</v>
-      </c>
-      <c r="E5" t="str">
-        <v>B</v>
-      </c>
-      <c r="F5" t="str">
-        <v>12</v>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>8430683794.5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Vidit</v>
-      </c>
-      <c r="C6" t="str">
-        <v>8430683794.5</v>
-      </c>
-      <c r="D6" t="str">
-        <v>8430683794.5_vidit</v>
-      </c>
-      <c r="E6" t="str">
-        <v>A</v>
-      </c>
-      <c r="F6" t="str">
-        <v>12</v>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>8430683795.3</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Raunak</v>
-      </c>
-      <c r="C7" t="str">
-        <v>8430683795.3</v>
-      </c>
-      <c r="D7" t="str">
-        <v>8430683795.3_raunak</v>
-      </c>
-      <c r="E7" t="str">
-        <v>B</v>
-      </c>
-      <c r="F7" t="str">
-        <v>12</v>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>8430683796.1</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Saurav</v>
-      </c>
-      <c r="C8" t="str">
-        <v>8430683796.1</v>
-      </c>
-      <c r="D8" t="str">
-        <v>8430683796.1_saurav</v>
-      </c>
-      <c r="E8" t="str">
-        <v>A</v>
-      </c>
-      <c r="F8" t="str">
-        <v>12</v>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>8430683796.9</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Yagya</v>
-      </c>
-      <c r="C9" t="str">
-        <v>8430683796.9</v>
-      </c>
-      <c r="D9" t="str">
-        <v>8430683796.9_yagya</v>
-      </c>
-      <c r="E9" t="str">
-        <v>B</v>
-      </c>
-      <c r="F9" t="str">
-        <v>12</v>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
+    <ignoredError sqref="A1:D1 G1 A2:E2 G2 A3:E3 G3 A4:E4 G4 A5:E5 G5 A6:G9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>password</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>admno</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
   <si>
     <t>8430683792</t>
@@ -140,6 +143,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -151,20 +168,97 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,115 +273,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -300,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +515,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -533,28 +545,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,166 +571,174 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,15 +1127,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,22 +1160,25 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -1183,22 +1189,25 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1209,22 +1218,25 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -1235,22 +1247,25 @@
       <c r="H4">
         <v>3</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -1261,51 +1276,57 @@
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>2111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1316,22 +1337,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>323</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1342,22 +1363,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1370,7 +1391,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 G1 A2:E2 G2 A3:E3 G3 A4:E4 G4 A5:E5 G5 A6:G9" numberStoredAsText="1"/>
+    <ignoredError sqref="D6:G6 A6:B6 A7:B7 D7:G7 A9:G9 D8:G8 A8:B8 G5 D5:E5 A5:B5 G4 D4:E4 A4:B4 G3 A3:E3 G2 A2:E2 G1 A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>